--- a/public/optimization_group.xlsx
+++ b/public/optimization_group.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaree\Desktop\AMOP UI\AMOP_UI\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332E3800-C077-4029-A971-0F5F096C73AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC71C317-9220-4277-A780-6B14652B4EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3480" yWindow="2952" windowWidth="17280" windowHeight="9960" xr2:uid="{1990BC48-C0C3-406C-B954-BB0478C32E6A}"/>
   </bookViews>
@@ -137,7 +137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -149,6 +149,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -466,9 +473,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C647DE6-2EF7-44AE-8D5C-6633518D8984}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="4" max="4" width="8.88671875" style="7"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="43.2">
       <c r="A1" s="2" t="s">
@@ -480,7 +492,7 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -492,7 +504,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <v>20</v>
       </c>
     </row>
@@ -504,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <v>20</v>
       </c>
       <c r="E3" s="4"/>
@@ -517,7 +529,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <v>5</v>
       </c>
       <c r="E4" s="4"/>
@@ -530,7 +542,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3">
+      <c r="D5" s="6">
         <v>8</v>
       </c>
       <c r="E5" s="4"/>
@@ -543,7 +555,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>6</v>
       </c>
       <c r="E6" s="4"/>
@@ -556,7 +568,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="3"/>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>0</v>
       </c>
       <c r="E7" s="4"/>
@@ -569,7 +581,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3">
+      <c r="D8" s="6">
         <v>5</v>
       </c>
       <c r="E8" s="1"/>
